--- a/code/06_01/ProjectTemplate.xlsx
+++ b/code/06_01/ProjectTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\guided-lab-powershell-for-azure-infrastructure-management-automation-2024269\code\06-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JessPomfret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9D9CF-6CE3-481E-967C-0C96B606F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87607CB-5242-4C00-A6C3-BCD24BF94AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTemplate" sheetId="1" r:id="rId1"/>
@@ -280,25 +280,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,101 +659,101 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -768,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT("rg-",$B$6,"-",$B$7,"-",B8)</f>
         <v>rg-appName-Prod-007</v>
@@ -781,7 +780,7 @@
         <v>UKSouth</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT("str",B6,B8)</f>
         <v>strappName007</v>
@@ -797,10 +796,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>LOWER(_xlfn.CONCAT("rg-",$B$6,"-",$B$7,"-",$B$8))</f>
-        <v>rg-appname-prod-007</v>
+        <f>LOWER(_xlfn.CONCAT("kv-",$B$6,"-",$B$7,"-",$B$8))</f>
+        <v>kv-appname-prod-007</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -819,7 +818,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B8" numberStoredAsText="1"/>
-    <ignoredError sqref="A15 A16:A17" calculatedColumn="1"/>
+    <ignoredError sqref="A15:A17" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/code/06_01/ProjectTemplate.xlsx
+++ b/code/06_01/ProjectTemplate.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JessPomfret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87607CB-5242-4C00-A6C3-BCD24BF94AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7BE9D-1EBB-4A96-A040-3E1FA8258196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
+    <workbookView xWindow="2400" yWindow="4275" windowWidth="21630" windowHeight="10290" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="info">ProjectTemplate!$A$5:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -659,7 +662,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/06_01/ProjectTemplate.xlsx
+++ b/code/06_01/ProjectTemplate.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JessPomfret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7BE9D-1EBB-4A96-A040-3E1FA8258196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660267C-03D6-47D6-83AF-27BC61BF90D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="4275" windowWidth="21630" windowHeight="10290" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
+    <workbookView xWindow="1440" yWindow="3000" windowWidth="22590" windowHeight="11565" xr2:uid="{DF1C87BB-BB47-4705-B7F1-6EAFBAA4C6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="info">ProjectTemplate!$A$5:$B$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Project Template</t>
   </si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>SkuName=Standard_LRS;Kind=StorageV2</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,14 +148,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -164,25 +158,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -200,12 +188,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -215,97 +201,107 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -326,19 +322,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0DE161-B649-4E5E-B395-1107F2DE4C25}" name="Resources" displayName="Resources" ref="A14:D17" totalsRowShown="0">
-  <autoFilter ref="A14:D17" xr:uid="{FF0DE161-B649-4E5E-B395-1107F2DE4C25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0DE161-B649-4E5E-B395-1107F2DE4C25}" name="Resources" displayName="Resources" ref="A15:D18" totalsRowShown="0">
+  <autoFilter ref="A15:D18" xr:uid="{FF0DE161-B649-4E5E-B395-1107F2DE4C25}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{32B4823D-6163-4468-A816-FF908CA573B3}" name="Name" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.CONCAT("rg-",B5,"-",B6,"-001")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{32B4823D-6163-4468-A816-FF908CA573B3}" name="Name" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.CONCAT("rg-",B5,"-",B7,"-001")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{BDF4CDB7-8296-4D60-B2ED-DB39DF9C874B}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{05BD433E-399E-45CE-B932-5B687DD92D1D}" name="Location" dataDxfId="0">
-      <calculatedColumnFormula>$B$9</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{05BD433E-399E-45CE-B932-5B687DD92D1D}" name="Location" dataDxfId="4">
+      <calculatedColumnFormula>$B$10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0A31627B-3343-4B5B-9A1C-CA7DC8DCD0D6}" name="Properties"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D9C5538C-1DBF-4BA1-AD0D-FFD8E9F615AF}" name="Info" displayName="Info" ref="A6:B12" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A6:B12" xr:uid="{D9C5538C-1DBF-4BA1-AD0D-FFD8E9F615AF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3A3DB1DB-2FBC-48CB-97F0-5B4161556DC2}" name="Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6F687397-E076-4021-8134-8E21C8E9E79E}" name="Value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -659,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8065A5-999C-4F00-8FAB-5DE42CE6DB55}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,141 +681,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>_xlfn.CONCAT("rg-",$B$6,"-",$B$7,"-",B8)</f>
-        <v>rg-appName-Prod-007</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ref="C15:C17" si="0">$B$9</f>
-        <v>UKSouth</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT("str",B6,B8)</f>
+        <f>_xlfn.CONCAT("rg-",$B$7,"-",$B$8,"-",B9)</f>
+        <v>rg-appName-Prod-007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="str">
+        <f>$B$10</f>
+        <v>UKSouth</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>_xlfn.CONCAT("str",B7,B9)</f>
         <v>strappName007</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
+      <c r="C17" t="str">
+        <f>$B$10</f>
         <v>UKSouth</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>LOWER(_xlfn.CONCAT("kv-",$B$6,"-",$B$7,"-",$B$8))</f>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>LOWER(_xlfn.CONCAT("kv-",$B$7,"-",$B$8,"-",$B$9))</f>
         <v>kv-appname-prod-007</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
+      <c r="C18" t="str">
+        <f>$B$10</f>
         <v>UKSouth</v>
       </c>
     </row>
@@ -819,12 +834,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B8" numberStoredAsText="1"/>
-    <ignoredError sqref="A15:A17" calculatedColumn="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>